--- a/microservice-production/microservice-data-analysis-api/src/main/resources/excelTemplate/processConditionData.xlsx
+++ b/microservice-production/microservice-data-analysis-api/src/main/resources/excelTemplate/processConditionData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20925" windowHeight="9840"/>
+    <workbookView windowWidth="20925" windowHeight="9840" tabRatio="290"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>项目量产工艺条件数据表</t>
   </si>
@@ -34,82 +34,118 @@
     <t>材料</t>
   </si>
   <si>
+    <t>模流工艺条件</t>
+  </si>
+  <si>
+    <t>实际工艺条件</t>
+  </si>
+  <si>
     <t>温度</t>
   </si>
   <si>
-    <t>射速</t>
-  </si>
-  <si>
-    <t>VP切换</t>
+    <t>射速(mm/s)</t>
+  </si>
+  <si>
+    <t>VP压力(Kgf/cm2)</t>
   </si>
   <si>
     <t>保压设置</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VP压力(Kgf/cm</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
     <t>顶出设置</t>
   </si>
   <si>
-    <t>冷却时间</t>
-  </si>
-  <si>
-    <t>锁模力</t>
+    <t>冷却时间(s)</t>
+  </si>
+  <si>
+    <t>锁模力(Ton)</t>
   </si>
   <si>
     <t>钝化工艺</t>
   </si>
   <si>
-    <t>模温</t>
-  </si>
-  <si>
-    <t>料温</t>
-  </si>
-  <si>
-    <t>保压1</t>
-  </si>
-  <si>
-    <t>保压2</t>
-  </si>
-  <si>
-    <t>保压3</t>
-  </si>
-  <si>
-    <t>保压4</t>
-  </si>
-  <si>
-    <t>保压5</t>
-  </si>
-  <si>
-    <t>保压6</t>
-  </si>
-  <si>
-    <t>保时1</t>
-  </si>
-  <si>
-    <t>保时2</t>
-  </si>
-  <si>
-    <t>保时3</t>
-  </si>
-  <si>
-    <t>保时4</t>
-  </si>
-  <si>
-    <t>保时5</t>
-  </si>
-  <si>
-    <t>保时6</t>
-  </si>
-  <si>
-    <t>保压速度</t>
-  </si>
-  <si>
-    <t>压板位置</t>
-  </si>
-  <si>
-    <t>开模速度</t>
-  </si>
-  <si>
-    <t>顶出速度</t>
+    <t>模温(℃)</t>
+  </si>
+  <si>
+    <t>料温(℃)</t>
+  </si>
+  <si>
+    <t>保压1(Kgf/cm2)</t>
+  </si>
+  <si>
+    <t>保压1时间(s)</t>
+  </si>
+  <si>
+    <t>保压2(Kgf/cm2)</t>
+  </si>
+  <si>
+    <t>保压2时间(s)</t>
+  </si>
+  <si>
+    <t>保压3(Kgf/cm2)</t>
+  </si>
+  <si>
+    <t>保压3时间(s)</t>
+  </si>
+  <si>
+    <t>保压4(Kgf/cm2)</t>
+  </si>
+  <si>
+    <t>保压4时间(s)</t>
+  </si>
+  <si>
+    <t>保压5(Kgf/cm2)</t>
+  </si>
+  <si>
+    <t>保压5时间(s)</t>
+  </si>
+  <si>
+    <t>保压6(Kgf/cm2)</t>
+  </si>
+  <si>
+    <t>保压6时间(s)</t>
+  </si>
+  <si>
+    <t>保压速度(mm/s)</t>
+  </si>
+  <si>
+    <t>压板位置(mm)</t>
+  </si>
+  <si>
+    <t>开模速度(mm/s)</t>
+  </si>
+  <si>
+    <t>顶出速度(mm/s)</t>
   </si>
 </sst>
 </file>
@@ -122,7 +158,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,7 +174,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="16"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -287,8 +337,15 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,6 +354,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -482,7 +545,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -494,6 +557,80 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -611,10 +748,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -623,147 +760,198 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1114,15 +1302,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB3"/>
+  <dimension ref="A1:AR4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <cols>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="8" max="8" width="10.25" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="1:28">
+    <row r="1" ht="22.5" spans="1:36">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1146,15 +1340,23 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="13"/>
     </row>
-    <row r="2" ht="20.25" spans="1:28">
+    <row r="2" ht="20.25" spans="1:44">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1173,125 +1375,249 @@
       <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="15"/>
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="15"/>
+      <c r="AM2" s="15"/>
+      <c r="AN2" s="15"/>
+      <c r="AO2" s="15"/>
+      <c r="AP2" s="15"/>
+      <c r="AQ2" s="15"/>
+      <c r="AR2" s="15"/>
+    </row>
+    <row r="3" ht="20.25" customHeight="1" spans="1:44">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3" t="s">
+      <c r="I3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3" t="s">
+      <c r="J3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="W3" s="17"/>
+      <c r="X3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="Z3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="17"/>
+      <c r="AD3" s="17"/>
+      <c r="AE3" s="17"/>
+      <c r="AF3" s="17"/>
+      <c r="AG3" s="17"/>
+      <c r="AH3" s="17"/>
+      <c r="AI3" s="17"/>
+      <c r="AJ3" s="17"/>
+      <c r="AK3" s="17"/>
+      <c r="AL3" s="17"/>
+      <c r="AM3" s="17" t="s">
         <v>13</v>
       </c>
+      <c r="AN3" s="17"/>
+      <c r="AO3" s="17"/>
+      <c r="AP3" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ3" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR3" s="19" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" ht="40.5" spans="1:28">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="3" t="s">
+    <row r="4" ht="42.75" spans="1:44">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="G4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="K4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="L4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="M4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="N4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="O4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="P4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="Q4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="R4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="S4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="T4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="U4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="V4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="W4" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA4" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB4" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC4" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE4" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF4" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG4" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH4" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI4" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ4" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK4" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL4" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
+      <c r="AM4" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN4" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO4" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP4" s="19"/>
+      <c r="AQ4" s="19"/>
+      <c r="AR4" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A1:AB1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="J2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
+  <mergeCells count="20">
+    <mergeCell ref="A1:AJ1"/>
+    <mergeCell ref="F2:U2"/>
+    <mergeCell ref="V2:AR2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="J3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="Z3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="AP3:AP4"/>
+    <mergeCell ref="AQ3:AQ4"/>
+    <mergeCell ref="AR3:AR4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/microservice-production/microservice-data-analysis-api/src/main/resources/excelTemplate/processConditionData.xlsx
+++ b/microservice-production/microservice-data-analysis-api/src/main/resources/excelTemplate/processConditionData.xlsx
@@ -345,18 +345,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -557,34 +551,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -612,8 +578,36 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -748,10 +742,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -760,16 +754,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -781,52 +775,52 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -835,16 +829,19 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -856,102 +853,90 @@
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1305,7 +1290,7 @@
   <dimension ref="A1:AR4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="AM15" sqref="AM15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1316,79 +1301,87 @@
     <col min="9" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="1:36">
+    <row r="1" ht="22.5" spans="1:44">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="13"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="17"/>
     </row>
     <row r="2" ht="20.25" spans="1:44">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
       <c r="U2" s="14"/>
       <c r="V2" s="15" t="s">
         <v>7</v>
@@ -1417,188 +1410,188 @@
       <c r="AR2" s="15"/>
     </row>
     <row r="3" ht="20.25" customHeight="1" spans="1:44">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7" t="s">
+      <c r="G3" s="7"/>
+      <c r="H3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
       <c r="U3" s="16"/>
-      <c r="V3" s="17" t="s">
+      <c r="V3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="W3" s="17"/>
-      <c r="X3" s="18" t="s">
+      <c r="W3" s="7"/>
+      <c r="X3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="Y3" s="18" t="s">
+      <c r="Y3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="Z3" s="17" t="s">
+      <c r="Z3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="17"/>
-      <c r="AE3" s="17"/>
-      <c r="AF3" s="17"/>
-      <c r="AG3" s="17"/>
-      <c r="AH3" s="17"/>
-      <c r="AI3" s="17"/>
-      <c r="AJ3" s="17"/>
-      <c r="AK3" s="17"/>
-      <c r="AL3" s="17"/>
-      <c r="AM3" s="17" t="s">
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7"/>
+      <c r="AJ3" s="7"/>
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="7"/>
+      <c r="AM3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="AN3" s="17"/>
-      <c r="AO3" s="17"/>
-      <c r="AP3" s="19" t="s">
+      <c r="AN3" s="7"/>
+      <c r="AO3" s="7"/>
+      <c r="AP3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AQ3" s="19" t="s">
+      <c r="AQ3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AR3" s="19" t="s">
+      <c r="AR3" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" ht="42.75" spans="1:44">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="9" t="s">
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="P4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="R4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="S4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="T4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="U4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V4" s="19" t="s">
+      <c r="V4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="W4" s="19" t="s">
+      <c r="W4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="19" t="s">
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AA4" s="19" t="s">
+      <c r="AA4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="AB4" s="19" t="s">
+      <c r="AB4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AC4" s="19" t="s">
+      <c r="AC4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AD4" s="19" t="s">
+      <c r="AD4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AE4" s="19" t="s">
+      <c r="AE4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AF4" s="19" t="s">
+      <c r="AF4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AG4" s="19" t="s">
+      <c r="AG4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="AH4" s="19" t="s">
+      <c r="AH4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AI4" s="19" t="s">
+      <c r="AI4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AJ4" s="19" t="s">
+      <c r="AJ4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AK4" s="19" t="s">
+      <c r="AK4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AL4" s="19" t="s">
+      <c r="AL4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="AM4" s="19" t="s">
+      <c r="AM4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AN4" s="19" t="s">
+      <c r="AN4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AO4" s="19" t="s">
+      <c r="AO4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="AP4" s="19"/>
-      <c r="AQ4" s="19"/>
-      <c r="AR4" s="19"/>
+      <c r="AP4" s="10"/>
+      <c r="AQ4" s="10"/>
+      <c r="AR4" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:AJ1"/>
+    <mergeCell ref="A1:AR1"/>
     <mergeCell ref="F2:U2"/>
     <mergeCell ref="V2:AR2"/>
     <mergeCell ref="F3:G3"/>

--- a/microservice-production/microservice-data-analysis-api/src/main/resources/excelTemplate/processConditionData.xlsx
+++ b/microservice-production/microservice-data-analysis-api/src/main/resources/excelTemplate/processConditionData.xlsx
@@ -7,31 +7,41 @@
     <workbookView windowWidth="20925" windowHeight="9840" tabRatio="290"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="数据搜集模板" sheetId="1" r:id="rId1"/>
+    <sheet name="数据格式备注" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="64">
   <si>
     <t>项目量产工艺条件数据表</t>
   </si>
   <si>
+    <t>事业部</t>
+  </si>
+  <si>
     <t>类别</t>
   </si>
   <si>
+    <t>镜片数</t>
+  </si>
+  <si>
     <t>项目</t>
   </si>
   <si>
+    <t>零件名称</t>
+  </si>
+  <si>
+    <t>材料</t>
+  </si>
+  <si>
     <t>模具序号</t>
   </si>
   <si>
-    <t>零件名称</t>
-  </si>
-  <si>
-    <t>材料</t>
+    <t>模具类型</t>
   </si>
   <si>
     <t>模流工艺条件</t>
@@ -50,6 +60,9 @@
   </si>
   <si>
     <t>保压设置</t>
+  </si>
+  <si>
+    <t>模流冷却时间(s)</t>
   </si>
   <si>
     <r>
@@ -85,7 +98,7 @@
     <t>顶出设置</t>
   </si>
   <si>
-    <t>冷却时间(s)</t>
+    <t>工艺冷却时间(s)</t>
   </si>
   <si>
     <t>锁模力(Ton)</t>
@@ -146,6 +159,119 @@
   </si>
   <si>
     <t>顶出速度(mm/s)</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>分类</t>
+  </si>
+  <si>
+    <t>手机</t>
+  </si>
+  <si>
+    <t>非手机-VR</t>
+  </si>
+  <si>
+    <t>非手机-车载</t>
+  </si>
+  <si>
+    <t>非手机-无人机</t>
+  </si>
+  <si>
+    <t>等等</t>
+  </si>
+  <si>
+    <t>主摄</t>
+  </si>
+  <si>
+    <t>广角</t>
+  </si>
+  <si>
+    <t>长焦</t>
+  </si>
+  <si>
+    <t>鱼眼</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PEL5014CL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P9000</t>
+    </r>
+  </si>
+  <si>
+    <t>双分</t>
+  </si>
+  <si>
+    <t>整体</t>
+  </si>
+  <si>
+    <t>分割位置</t>
+  </si>
+  <si>
+    <t>承靠到终端</t>
+  </si>
+  <si>
+    <t>承靠到外径</t>
+  </si>
+  <si>
+    <t>浇口类型</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>开模方式</t>
+  </si>
+  <si>
+    <t>正向开模</t>
+  </si>
+  <si>
+    <t>反向开模</t>
   </si>
 </sst>
 </file>
@@ -158,7 +284,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,7 +300,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -539,7 +679,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -551,18 +691,9 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="thin">
         <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -602,9 +733,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -614,9 +743,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -625,12 +752,8 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -742,10 +865,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -754,189 +877,204 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1287,333 +1425,581 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AV4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AM15" sqref="AM15"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AR20" sqref="AR20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
-    <col min="8" max="8" width="10.25" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="7" width="12.125" customWidth="1"/>
+    <col min="8" max="8" width="11.75" customWidth="1"/>
+    <col min="11" max="11" width="10.25" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="1:44">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="22.5" spans="1:48">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="17"/>
-    </row>
-    <row r="2" ht="20.25" spans="1:44">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7"/>
+      <c r="AK1" s="7"/>
+      <c r="AL1" s="7"/>
+      <c r="AM1" s="7"/>
+      <c r="AN1" s="7"/>
+      <c r="AO1" s="7"/>
+      <c r="AP1" s="7"/>
+      <c r="AQ1" s="7"/>
+      <c r="AR1" s="7"/>
+      <c r="AS1" s="7"/>
+      <c r="AT1" s="7"/>
+      <c r="AU1" s="7"/>
+      <c r="AV1" s="7"/>
+    </row>
+    <row r="2" ht="20.25" spans="1:48">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="15" t="s">
+      <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="15"/>
-      <c r="AH2" s="15"/>
-      <c r="AI2" s="15"/>
-      <c r="AJ2" s="15"/>
-      <c r="AK2" s="15"/>
-      <c r="AL2" s="15"/>
-      <c r="AM2" s="15"/>
-      <c r="AN2" s="15"/>
-      <c r="AO2" s="15"/>
-      <c r="AP2" s="15"/>
-      <c r="AQ2" s="15"/>
-      <c r="AR2" s="15"/>
-    </row>
-    <row r="3" ht="20.25" customHeight="1" spans="1:44">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7" t="s">
+      <c r="H2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="I2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="21"/>
+      <c r="AN2" s="21"/>
+      <c r="AO2" s="21"/>
+      <c r="AP2" s="21"/>
+      <c r="AQ2" s="21"/>
+      <c r="AR2" s="21"/>
+      <c r="AS2" s="21"/>
+      <c r="AT2" s="21"/>
+      <c r="AU2" s="21"/>
+      <c r="AV2" s="21"/>
+    </row>
+    <row r="3" ht="20.25" customHeight="1" spans="1:48">
+      <c r="A3" s="12"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="W3" s="7"/>
-      <c r="X3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y3" s="8" t="s">
+      <c r="J3" s="17"/>
+      <c r="K3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="Z3" s="7" t="s">
+      <c r="L3" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="7"/>
-      <c r="AH3" s="7"/>
-      <c r="AI3" s="7"/>
-      <c r="AJ3" s="7"/>
-      <c r="AK3" s="7"/>
-      <c r="AL3" s="7"/>
-      <c r="AM3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN3" s="7"/>
-      <c r="AO3" s="7"/>
-      <c r="AP3" s="10" t="s">
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC3" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="AQ3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR3" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" ht="42.75" spans="1:44">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10" t="s">
+      <c r="AE3" s="17"/>
+      <c r="AF3" s="17"/>
+      <c r="AG3" s="17"/>
+      <c r="AH3" s="17"/>
+      <c r="AI3" s="17"/>
+      <c r="AJ3" s="17"/>
+      <c r="AK3" s="17"/>
+      <c r="AL3" s="17"/>
+      <c r="AM3" s="17"/>
+      <c r="AN3" s="17"/>
+      <c r="AO3" s="17"/>
+      <c r="AP3" s="17"/>
+      <c r="AQ3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="AR3" s="17"/>
+      <c r="AS3" s="17"/>
+      <c r="AT3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="10" t="s">
+      <c r="AU3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="AV3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="10" t="s">
+    </row>
+    <row r="4" ht="42.75" spans="1:48">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="J4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="N4" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="O4" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="P4" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="Q4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="10" t="s">
+      <c r="R4" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="10" t="s">
+      <c r="S4" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="U4" s="10" t="s">
+      <c r="T4" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="V4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="W4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB4" s="10" t="s">
+      <c r="U4" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="V4" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="W4" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="X4" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="AC4" s="10" t="s">
+      <c r="AA4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="AD4" s="10" t="s">
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="AE4" s="10" t="s">
+      <c r="AE4" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AF4" s="10" t="s">
+      <c r="AF4" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="AG4" s="10" t="s">
+      <c r="AG4" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="AH4" s="10" t="s">
+      <c r="AH4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="AI4" s="10" t="s">
+      <c r="AI4" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AJ4" s="10" t="s">
+      <c r="AJ4" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="AK4" s="10" t="s">
+      <c r="AK4" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="AL4" s="10" t="s">
+      <c r="AL4" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="AM4" s="10" t="s">
+      <c r="AM4" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="AN4" s="10" t="s">
+      <c r="AN4" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="AO4" s="10" t="s">
+      <c r="AO4" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="AP4" s="10"/>
-      <c r="AQ4" s="10"/>
-      <c r="AR4" s="10"/>
+      <c r="AP4" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ4" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR4" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="AS4" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT4" s="22"/>
+      <c r="AU4" s="19"/>
+      <c r="AV4" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A1:AR1"/>
-    <mergeCell ref="F2:U2"/>
-    <mergeCell ref="V2:AR2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="J3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="Z3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
+  <mergeCells count="24">
+    <mergeCell ref="A1:AV1"/>
+    <mergeCell ref="I2:Y2"/>
+    <mergeCell ref="Z2:AV2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="M3:X3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AD3:AP3"/>
+    <mergeCell ref="AQ3:AS3"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="E2:E4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
     <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="AP3:AP4"/>
-    <mergeCell ref="AQ3:AQ4"/>
-    <mergeCell ref="AR3:AR4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AT3:AT4"/>
+    <mergeCell ref="AU3:AU4"/>
+    <mergeCell ref="AV3:AV4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C6:D34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="6" spans="3:4">
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4">
+      <c r="C7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4">
+      <c r="C8" s="3"/>
+      <c r="D8" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4">
+      <c r="C9" s="3"/>
+      <c r="D9" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4">
+      <c r="C10" s="3"/>
+      <c r="D10" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
+      <c r="C11" s="4"/>
+      <c r="D11" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4">
+      <c r="C12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4">
+      <c r="C13" s="3"/>
+      <c r="D13" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4">
+      <c r="C14" s="3"/>
+      <c r="D14" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4">
+      <c r="C15" s="3"/>
+      <c r="D15" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4">
+      <c r="C16" s="4"/>
+      <c r="D16" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" s="3"/>
+      <c r="D18" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" s="3"/>
+      <c r="D19" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="4"/>
+      <c r="D20" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22" s="3"/>
+      <c r="D22" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4">
+      <c r="C23" s="4"/>
+      <c r="D23" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4">
+      <c r="C25" s="4"/>
+      <c r="D25" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4">
+      <c r="C26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4">
+      <c r="C27" s="4"/>
+      <c r="D27" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4">
+      <c r="C28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4">
+      <c r="C29" s="3"/>
+      <c r="D29" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="C30" s="3"/>
+      <c r="D30" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4">
+      <c r="C31" s="4"/>
+      <c r="D31" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4">
+      <c r="C32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" s="3"/>
+      <c r="D33" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34" s="4"/>
+      <c r="D34" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="C32:C34"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
 </file>